--- a/biology/Médecine/1213_en_santé_et_médecine/1213_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1213_en_santé_et_médecine/1213_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1213_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1213_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1213 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1213_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1213_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Août : L'emploi, dans un mandement épiscopal, du mot « phisici » pour distinguer les « médecins » des maîtres et écoliers des autres disciplines constitue la première trace d'un enseignement de la médecine à l'université de Paris[1].
-Fondation de l'hôpital Saint-Thomas de Londres[2].
-Fondation probable d'un hospice qui deviendra l'hôtel-Dieu Saint-Gilles de Louviers, en Normandie, dans l'acte de concession d'un terrain par Jean de Martigny, abbé de Saint-Taurin d'Évreux [3].
-Fondation probable d'une maison-Dieu Saint-Jacques par le chapitre de la cathédrale de Rennes, en Bretagne[4].
-Fondation à Château-Thierry, dans le comté de Champagne, d'« un petit hôpital établi pour recevoir les pauvres, [qui] par la suite devait devenir le couvent de La Barre[5] ».
-Un asile de la collégiale Saint-Pierre de Lille, fondé par le chanoine Jean Martin « pour les malades pauvres », est détruit dans l'incendie provoqué par Philippe Auguste en guerre contre Jean sans Terre, mais il sera relevé dès 1215 comme hôpital Saint-Sauveur par les soins de la comtesse de Flandre, Jeanne de Constantinople[6].
-La maison-Dieu Saint-Sauveur de Verdun, en Lorraine, « pourtant plus ancienne, [s'affilie] à l'hôpital Saint-Nicolas de Gravière[7] ».
-Vers 1213 :  fondation de l'hôpital Novellus de Toulouse, dont la « courte existence » se terminera en 1246 [8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Août : L'emploi, dans un mandement épiscopal, du mot « phisici » pour distinguer les « médecins » des maîtres et écoliers des autres disciplines constitue la première trace d'un enseignement de la médecine à l'université de Paris.
+Fondation de l'hôpital Saint-Thomas de Londres.
+Fondation probable d'un hospice qui deviendra l'hôtel-Dieu Saint-Gilles de Louviers, en Normandie, dans l'acte de concession d'un terrain par Jean de Martigny, abbé de Saint-Taurin d'Évreux .
+Fondation probable d'une maison-Dieu Saint-Jacques par le chapitre de la cathédrale de Rennes, en Bretagne.
+Fondation à Château-Thierry, dans le comté de Champagne, d'« un petit hôpital établi pour recevoir les pauvres, [qui] par la suite devait devenir le couvent de La Barre ».
+Un asile de la collégiale Saint-Pierre de Lille, fondé par le chanoine Jean Martin « pour les malades pauvres », est détruit dans l'incendie provoqué par Philippe Auguste en guerre contre Jean sans Terre, mais il sera relevé dès 1215 comme hôpital Saint-Sauveur par les soins de la comtesse de Flandre, Jeanne de Constantinople.
+La maison-Dieu Saint-Sauveur de Verdun, en Lorraine, « pourtant plus ancienne, [s'affilie] à l'hôpital Saint-Nicolas de Gravière ».
+Vers 1213 :  fondation de l'hôpital Novellus de Toulouse, dont la « courte existence » se terminera en 1246 .</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1213_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1213_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1208[9] ou 1213[10] : Ibn Nafis (mort en 1288), médecin arabe, auteur, en 1242, d'un commentaire d'Avicenne (Al-Shamil fi al-Tibb) où la circulation pulmonaire est décrite pour la première fois.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1208 ou 1213 : Ibn Nafis (mort en 1288), médecin arabe, auteur, en 1242, d'un commentaire d'Avicenne (Al-Shamil fi al-Tibb) où la circulation pulmonaire est décrite pour la première fois.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1213_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1213_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mkhitar Goch (né vers 1130), fabuliste, juriste et théologien arménien, auteur du Livre des lois[11], premier code de législation arménien, qui comporte d'importantes et nombreuses dispositions concernant l'exercice de la médecine et le statut des malades[12].
-Ibn Hubal (en) (né en 1122), médecin arabe, connu pour son ouvrage Kitab al-Mukhtar fi al-ṭibb (« Le Livre des choix en médecine[13] »).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mkhitar Goch (né vers 1130), fabuliste, juriste et théologien arménien, auteur du Livre des lois, premier code de législation arménien, qui comporte d'importantes et nombreuses dispositions concernant l'exercice de la médecine et le statut des malades.
+Ibn Hubal (en) (né en 1122), médecin arabe, connu pour son ouvrage Kitab al-Mukhtar fi al-ṭibb (« Le Livre des choix en médecine »).</t>
         </is>
       </c>
     </row>
